--- a/tests/bin/OpenRefine_exports/2_DB2_18-19.xlsx
+++ b/tests/bin/OpenRefine_exports/2_DB2_18-19.xlsx
@@ -128,7 +128,7 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>43497.208333333336</v>
+        <v>43497.0</v>
       </c>
       <c r="G2" t="n">
         <v>2.0</v>
@@ -161,7 +161,7 @@
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>43556.208333333336</v>
+        <v>43556.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
